--- a/diccionario_metricas_porteros.xlsx
+++ b/diccionario_metricas_porteros.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelDuran\AppData\Local\Programs\Python\scouting_porteros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelDuran\AppData\Local\Programs\Python\streamlit_scouting_gk\streamlit_scouting_gk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2508EA9-87DA-40CA-8102-0A062F493827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BF2F00-3BD2-4AC3-9420-6E7CB74550BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,13 +626,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -941,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -964,10 +963,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>176</v>
       </c>
     </row>
@@ -985,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -1108,13 +1107,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>100</v>
       </c>
       <c r="D10" t="b">
@@ -1125,13 +1124,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>101</v>
       </c>
       <c r="D11" t="b">
@@ -1142,13 +1141,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>102</v>
       </c>
       <c r="D12" t="b">
@@ -1278,7 +1277,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
@@ -2350,7 +2349,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
         <v>89</v>
@@ -2359,15 +2358,15 @@
         <v>160</v>
       </c>
       <c r="D83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
         <v>90</v>
@@ -2376,15 +2375,15 @@
         <v>161</v>
       </c>
       <c r="D84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
         <v>91</v>
@@ -2393,10 +2392,10 @@
         <v>162</v>
       </c>
       <c r="D85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/diccionario_metricas_porteros.xlsx
+++ b/diccionario_metricas_porteros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelDuran\AppData\Local\Programs\Python\streamlit_scouting_gk\streamlit_scouting_gk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BF2F00-3BD2-4AC3-9420-6E7CB74550BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D0CCDB-18E9-4B47-94C9-35FF60785E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,9 +511,6 @@
     <t>Errores con Gol</t>
   </si>
   <si>
-    <t>Errores con Intento</t>
-  </si>
-  <si>
     <t>Paradas de Baja Intervención</t>
   </si>
   <si>
@@ -541,15 +538,6 @@
     <t>Blocajes Fuera Área Pequeña</t>
   </si>
   <si>
-    <t>Blocajes Fallidos Fuera Área</t>
-  </si>
-  <si>
-    <t>Blocajes Exitosos Fuera Área</t>
-  </si>
-  <si>
-    <t>% Éxito Blocajes Fuera Área</t>
-  </si>
-  <si>
     <t>Invertir</t>
   </si>
   <si>
@@ -557,6 +545,18 @@
   </si>
   <si>
     <t>Centros No Interceptados</t>
+  </si>
+  <si>
+    <t>Errores que terminan en Tiro</t>
+  </si>
+  <si>
+    <t>Blocajes Exitosos Fuera Área Peq.</t>
+  </si>
+  <si>
+    <t>Blocajes Fallidos Fuera Área Peq.</t>
+  </si>
+  <si>
+    <t>% Éxito Blocajes Fuera Área Peq.</t>
   </si>
 </sst>
 </file>
@@ -938,10 +938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -964,13 +965,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -987,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1174,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1191,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1208,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1276,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1293,7 +1294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1327,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
@@ -1953,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
@@ -1964,7 +1965,7 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -1981,7 +1982,7 @@
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -1998,7 +1999,7 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -2015,7 +2016,7 @@
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -2032,7 +2033,7 @@
         <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -2049,13 +2050,13 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
@@ -2066,7 +2067,7 @@
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -2106,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
@@ -2126,7 +2127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2151,13 +2152,13 @@
         <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
@@ -2174,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -2211,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -2296,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -2330,7 +2331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
@@ -2399,7 +2400,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E85" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E85" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Construcción"/>
+        <filter val="Juego Aéreo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/diccionario_metricas_porteros.xlsx
+++ b/diccionario_metricas_porteros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelDuran\AppData\Local\Programs\Python\streamlit_scouting_gk\streamlit_scouting_gk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D0CCDB-18E9-4B47-94C9-35FF60785E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B85FFF-E64D-4D96-BFD5-23F6F3E67D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="1" r:id="rId1"/>
@@ -941,8 +941,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -971,7 +971,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1070,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -2403,8 +2403,7 @@
   <autoFilter ref="A1:E85" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Construcción"/>
-        <filter val="Juego Aéreo"/>
+        <filter val="Portería"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/diccionario_metricas_porteros.xlsx
+++ b/diccionario_metricas_porteros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelDuran\AppData\Local\Programs\Python\streamlit_scouting_gk\streamlit_scouting_gk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B85FFF-E64D-4D96-BFD5-23F6F3E67D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868D27D1-136D-4A28-98D0-D68A2EF22B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="1" r:id="rId1"/>
@@ -942,7 +942,7 @@
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -971,7 +971,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -2403,7 +2403,7 @@
   <autoFilter ref="A1:E85" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Portería"/>
+        <filter val="Juego Aéreo"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/diccionario_metricas_porteros.xlsx
+++ b/diccionario_metricas_porteros.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelDuran\AppData\Local\Programs\Python\streamlit_scouting_gk\streamlit_scouting_gk\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868D27D1-136D-4A28-98D0-D68A2EF22B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diccionario!$A$1:$E$85</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="154">
   <si>
     <t>categoria</t>
   </si>
@@ -58,12 +49,6 @@
     <t>xgot_paradas</t>
   </si>
   <si>
-    <t>xGoT_Tiro</t>
-  </si>
-  <si>
-    <t>pct_paradas</t>
-  </si>
-  <si>
     <t>paradas_area_pequena</t>
   </si>
   <si>
@@ -97,9 +82,6 @@
     <t>saves_parrieddanger</t>
   </si>
   <si>
-    <t>pct_rechace_seguro</t>
-  </si>
-  <si>
     <t>saves_collected</t>
   </si>
   <si>
@@ -133,9 +115,6 @@
     <t>pases_no_exitosos</t>
   </si>
   <si>
-    <t>pct_pases_exitosos</t>
-  </si>
-  <si>
     <t>pases_longball</t>
   </si>
   <si>
@@ -145,12 +124,6 @@
     <t>pases_longball_no_exitosos</t>
   </si>
   <si>
-    <t>pct_pases_largos</t>
-  </si>
-  <si>
-    <t>pct_pases_largos_exitosos</t>
-  </si>
-  <si>
     <t>pases_cortos</t>
   </si>
   <si>
@@ -160,12 +133,6 @@
     <t>pases_cortos_no_exitosos</t>
   </si>
   <si>
-    <t>pct_pases_cortos</t>
-  </si>
-  <si>
-    <t>pct_pases_cortos_exitosos</t>
-  </si>
-  <si>
     <t>pases_fuera_area</t>
   </si>
   <si>
@@ -178,9 +145,6 @@
     <t>pases_primer_tercio_no_exitosos</t>
   </si>
   <si>
-    <t>pct_exito_pases_primer_tercio</t>
-  </si>
-  <si>
     <t>pases_segundo_tercio</t>
   </si>
   <si>
@@ -190,9 +154,6 @@
     <t>pases_segundo_tercio_no_exitosos</t>
   </si>
   <si>
-    <t>pct_exito_pases_segundo_tercio</t>
-  </si>
-  <si>
     <t>pases_tercer_tercio</t>
   </si>
   <si>
@@ -202,7 +163,19 @@
     <t>pases_tercer_tercio_no_exitosos</t>
   </si>
   <si>
-    <t>pct_exito_pases_tercer_tercio</t>
+    <t>distancia_media_longball</t>
+  </si>
+  <si>
+    <t>keeperthrow_totales</t>
+  </si>
+  <si>
+    <t>keeperthrow_exitosos</t>
+  </si>
+  <si>
+    <t>keeperthrow_no_exitosos</t>
+  </si>
+  <si>
+    <t>distancia_media_saque_con_mano</t>
   </si>
   <si>
     <t>xt_acumulado</t>
@@ -214,9 +187,6 @@
     <t>altura_promedio_pases_fuera_area</t>
   </si>
   <si>
-    <t>indice_construccion_fuera_de_area</t>
-  </si>
-  <si>
     <t>duelos_aereos</t>
   </si>
   <si>
@@ -229,9 +199,6 @@
     <t>claims_no_exitosos</t>
   </si>
   <si>
-    <t>pct_exito_claim</t>
-  </si>
-  <si>
     <t>claims_fuera_area_pequena</t>
   </si>
   <si>
@@ -241,9 +208,6 @@
     <t>claims_no_exitosos_fuera_area</t>
   </si>
   <si>
-    <t>pct_exito_claim_fuera_area</t>
-  </si>
-  <si>
     <t>punch</t>
   </si>
   <si>
@@ -259,9 +223,6 @@
     <t>crossnotclaimed</t>
   </si>
   <si>
-    <t>pct_blocaje</t>
-  </si>
-  <si>
     <t>keeper_sweeper</t>
   </si>
   <si>
@@ -286,9 +247,6 @@
     <t>altura_promedio_acciones_defensivas_fuera_area</t>
   </si>
   <si>
-    <t>indice_agresividad_fuera_area</t>
-  </si>
-  <si>
     <t>minutos_totales</t>
   </si>
   <si>
@@ -310,12 +268,6 @@
     <t>xGoT de Paradas</t>
   </si>
   <si>
-    <t>xGoT Promedio por Tiro</t>
-  </si>
-  <si>
-    <t>% de Paradas</t>
-  </si>
-  <si>
     <t>Paradas en Área Pequeña</t>
   </si>
   <si>
@@ -334,13 +286,25 @@
     <t>xGoT Paradas Fuera Área Pequeña</t>
   </si>
   <si>
+    <t>Paradas Baja Dificultad</t>
+  </si>
+  <si>
+    <t>Paradas Media Dificultad</t>
+  </si>
+  <si>
+    <t>Paradas Alta Dificultad</t>
+  </si>
+  <si>
     <t>Rechaces Seguros</t>
   </si>
   <si>
     <t>Rechaces Peligrosos</t>
   </si>
   <si>
-    <t>% Rechaces Seguros</t>
+    <t>Atrapadas</t>
+  </si>
+  <si>
+    <t>Achicar</t>
   </si>
   <si>
     <t>xG Total Recibido</t>
@@ -370,9 +334,6 @@
     <t>Pases No Exitosos</t>
   </si>
   <si>
-    <t>% Pases Exitosos</t>
-  </si>
-  <si>
     <t>Pases Largos</t>
   </si>
   <si>
@@ -382,12 +343,6 @@
     <t>Pases Largos No Exitosos</t>
   </si>
   <si>
-    <t>% Pases Largos</t>
-  </si>
-  <si>
-    <t>% Precisión Pases Largos</t>
-  </si>
-  <si>
     <t>Pases Cortos</t>
   </si>
   <si>
@@ -397,12 +352,6 @@
     <t>Pases Cortos No Exitosos</t>
   </si>
   <si>
-    <t>% Pases Cortos</t>
-  </si>
-  <si>
-    <t>% Precisión Pases Cortos</t>
-  </si>
-  <si>
     <t>Pases Fuera de Área</t>
   </si>
   <si>
@@ -415,9 +364,6 @@
     <t>Pases 1er Tercio No Exitosos</t>
   </si>
   <si>
-    <t>% Precisión 1er Tercio</t>
-  </si>
-  <si>
     <t>Pases 2do Tercio</t>
   </si>
   <si>
@@ -427,9 +373,6 @@
     <t>Pases 2do Tercio No Exitosos</t>
   </si>
   <si>
-    <t>% Precisión 2do Tercio</t>
-  </si>
-  <si>
     <t>Pases 3er Tercio</t>
   </si>
   <si>
@@ -439,7 +382,19 @@
     <t>Pases 3er Tercio No Exitosos</t>
   </si>
   <si>
-    <t>% Precisión 3er Tercio</t>
+    <t>Distancia Media Longball</t>
+  </si>
+  <si>
+    <t>KeeperThrow Totales</t>
+  </si>
+  <si>
+    <t>KeeperThrow Exitosos</t>
+  </si>
+  <si>
+    <t>KeeperThrow No Exitosos</t>
+  </si>
+  <si>
+    <t>Distancia Media Saque Mano</t>
   </si>
   <si>
     <t>xT Acumulado</t>
@@ -451,15 +406,27 @@
     <t>Altura Promedio Pases Fuera Área</t>
   </si>
   <si>
-    <t>Índice Construcción Fuera Área</t>
-  </si>
-  <si>
     <t>Duelos Aéreos</t>
   </si>
   <si>
     <t>Salidas a Capturar</t>
   </si>
   <si>
+    <t>Capturas Exitosas</t>
+  </si>
+  <si>
+    <t>Capturas Fallidas</t>
+  </si>
+  <si>
+    <t>Capturas Fuera Área Pequeña</t>
+  </si>
+  <si>
+    <t>Capturas Exitosas Fuera Área</t>
+  </si>
+  <si>
+    <t>Capturas Fallidas Fuera Área</t>
+  </si>
+  <si>
     <t>Despejes de Puño</t>
   </si>
   <si>
@@ -472,7 +439,7 @@
     <t>Centros Exitosos Sufridos</t>
   </si>
   <si>
-    <t>% Blocaje</t>
+    <t>Centros No Reclamados</t>
   </si>
   <si>
     <t>Barridas</t>
@@ -499,9 +466,6 @@
     <t>Altura Promedio Acciones Fuera Área</t>
   </si>
   <si>
-    <t>Índice Agresividad Fuera Área</t>
-  </si>
-  <si>
     <t>Minutos Totales</t>
   </si>
   <si>
@@ -511,59 +475,14 @@
     <t>Errores con Gol</t>
   </si>
   <si>
-    <t>Paradas de Baja Intervención</t>
-  </si>
-  <si>
-    <t>Paradas de Media Intervención</t>
-  </si>
-  <si>
-    <t>Paradas de Alta Intervención</t>
-  </si>
-  <si>
-    <t>Total Achiques</t>
-  </si>
-  <si>
-    <t>Total Atrapadas</t>
-  </si>
-  <si>
-    <t>Blocajes Exitosos</t>
-  </si>
-  <si>
-    <t>Blocajes Fallidos</t>
-  </si>
-  <si>
-    <t>% Éxito Blocajes</t>
-  </si>
-  <si>
-    <t>Blocajes Fuera Área Pequeña</t>
-  </si>
-  <si>
-    <t>Invertir</t>
-  </si>
-  <si>
-    <t>Ponderacion</t>
-  </si>
-  <si>
-    <t>Centros No Interceptados</t>
-  </si>
-  <si>
-    <t>Errores que terminan en Tiro</t>
-  </si>
-  <si>
-    <t>Blocajes Exitosos Fuera Área Peq.</t>
-  </si>
-  <si>
-    <t>Blocajes Fallidos Fuera Área Peq.</t>
-  </si>
-  <si>
-    <t>% Éxito Blocajes Fuera Área Peq.</t>
+    <t>Errores con Intento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,7 +507,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -611,27 +530,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -640,21 +545,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -692,7 +589,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -726,7 +623,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -761,10 +657,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -937,24 +832,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.9296875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -964,14 +849,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -979,16 +858,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -996,16 +869,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1013,16 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1030,16 +891,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1047,16 +902,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1064,16 +913,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1081,16 +924,10 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1098,67 +935,43 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1166,16 +979,10 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1183,16 +990,10 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1200,16 +1001,10 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1217,16 +1012,10 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1234,16 +1023,10 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1251,16 +1034,10 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1268,67 +1045,43 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1336,67 +1089,43 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1404,16 +1133,10 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1421,16 +1144,10 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1438,16 +1155,10 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1455,16 +1166,10 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1472,16 +1177,10 @@
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1489,16 +1188,10 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1506,16 +1199,10 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1523,16 +1210,10 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1540,16 +1221,10 @@
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1557,16 +1232,10 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1574,16 +1243,10 @@
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1591,16 +1254,10 @@
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1608,16 +1265,10 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1625,16 +1276,10 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1642,16 +1287,10 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1659,16 +1298,10 @@
         <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1676,16 +1309,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1693,16 +1320,10 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1710,16 +1331,10 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1727,16 +1342,10 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1744,16 +1353,10 @@
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1761,16 +1364,10 @@
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1778,16 +1375,10 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1795,135 +1386,87 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
         <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1931,16 +1474,10 @@
         <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
-      </c>
-      <c r="D58" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1948,16 +1485,10 @@
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" t="b">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1965,16 +1496,10 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D60" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1982,16 +1507,10 @@
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>168</v>
-      </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1999,414 +1518,142 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>169</v>
-      </c>
-      <c r="D62" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
-      </c>
-      <c r="D63" t="b">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
         <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
-      </c>
-      <c r="D64" t="b">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
-      </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
-      </c>
-      <c r="D66" t="b">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
         <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
         <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
-      </c>
-      <c r="D68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
         <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
-      </c>
-      <c r="D69" t="b">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
         <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D70" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
         <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>173</v>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
         <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
-      </c>
-      <c r="D72" t="b">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B73" t="s">
         <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
         <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74" t="b">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" t="s">
-        <v>152</v>
-      </c>
-      <c r="D75" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" t="s">
         <v>153</v>
       </c>
-      <c r="D76" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" t="s">
-        <v>154</v>
-      </c>
-      <c r="D77" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" t="s">
-        <v>155</v>
-      </c>
-      <c r="D78" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79" t="s">
-        <v>156</v>
-      </c>
-      <c r="D79" t="b">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>157</v>
-      </c>
-      <c r="D80" t="b">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" t="s">
-        <v>158</v>
-      </c>
-      <c r="D81" t="b">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C82" t="s">
-        <v>159</v>
-      </c>
-      <c r="D82" t="b">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" t="s">
-        <v>89</v>
-      </c>
-      <c r="C83" t="s">
-        <v>160</v>
-      </c>
-      <c r="D83" t="b">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84" t="s">
-        <v>161</v>
-      </c>
-      <c r="D84" t="b">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85" t="s">
-        <v>174</v>
-      </c>
-      <c r="D85" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E85" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Juego Aéreo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/diccionario_metricas_porteros.xlsx
+++ b/diccionario_metricas_porteros.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelDuran\AppData\Local\Programs\Python\streamlit_scouting_gk\streamlit_scouting_gk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A72918E-61C1-428D-AE7E-6F41830C0440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diccionario!$A$1:$E$85</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="190">
   <si>
     <t>categoria</t>
   </si>
@@ -49,6 +58,12 @@
     <t>xgot_paradas</t>
   </si>
   <si>
+    <t>xGoT_Tiro</t>
+  </si>
+  <si>
+    <t>pct_paradas</t>
+  </si>
+  <si>
     <t>paradas_area_pequena</t>
   </si>
   <si>
@@ -82,6 +97,9 @@
     <t>saves_parrieddanger</t>
   </si>
   <si>
+    <t>pct_rechace_seguro</t>
+  </si>
+  <si>
     <t>saves_collected</t>
   </si>
   <si>
@@ -115,6 +133,9 @@
     <t>pases_no_exitosos</t>
   </si>
   <si>
+    <t>pct_pases_exitosos</t>
+  </si>
+  <si>
     <t>pases_longball</t>
   </si>
   <si>
@@ -124,6 +145,12 @@
     <t>pases_longball_no_exitosos</t>
   </si>
   <si>
+    <t>pct_pases_largos</t>
+  </si>
+  <si>
+    <t>pct_pases_largos_exitosos</t>
+  </si>
+  <si>
     <t>pases_cortos</t>
   </si>
   <si>
@@ -133,6 +160,12 @@
     <t>pases_cortos_no_exitosos</t>
   </si>
   <si>
+    <t>pct_pases_cortos</t>
+  </si>
+  <si>
+    <t>pct_pases_cortos_exitosos</t>
+  </si>
+  <si>
     <t>pases_fuera_area</t>
   </si>
   <si>
@@ -145,6 +178,9 @@
     <t>pases_primer_tercio_no_exitosos</t>
   </si>
   <si>
+    <t>pct_exito_pases_primer_tercio</t>
+  </si>
+  <si>
     <t>pases_segundo_tercio</t>
   </si>
   <si>
@@ -154,6 +190,9 @@
     <t>pases_segundo_tercio_no_exitosos</t>
   </si>
   <si>
+    <t>pct_exito_pases_segundo_tercio</t>
+  </si>
+  <si>
     <t>pases_tercer_tercio</t>
   </si>
   <si>
@@ -163,6 +202,363 @@
     <t>pases_tercer_tercio_no_exitosos</t>
   </si>
   <si>
+    <t>pct_exito_pases_tercer_tercio</t>
+  </si>
+  <si>
+    <t>xt_acumulado</t>
+  </si>
+  <si>
+    <t>xa_acumulado</t>
+  </si>
+  <si>
+    <t>altura_promedio_pases_fuera_area</t>
+  </si>
+  <si>
+    <t>indice_construccion_fuera_de_area</t>
+  </si>
+  <si>
+    <t>duelos_aereos</t>
+  </si>
+  <si>
+    <t>claims_totales</t>
+  </si>
+  <si>
+    <t>claims_exitosos</t>
+  </si>
+  <si>
+    <t>claims_no_exitosos</t>
+  </si>
+  <si>
+    <t>pct_exito_claim</t>
+  </si>
+  <si>
+    <t>claims_fuera_area_pequena</t>
+  </si>
+  <si>
+    <t>claims_exitosos_fuera_area</t>
+  </si>
+  <si>
+    <t>claims_no_exitosos_fuera_area</t>
+  </si>
+  <si>
+    <t>pct_exito_claim_fuera_area</t>
+  </si>
+  <si>
+    <t>punch</t>
+  </si>
+  <si>
+    <t>acciones_centros</t>
+  </si>
+  <si>
+    <t>acciones_centros_fuera_area</t>
+  </si>
+  <si>
+    <t>centros_exitosos_sufridos</t>
+  </si>
+  <si>
+    <t>crossnotclaimed</t>
+  </si>
+  <si>
+    <t>pct_blocaje</t>
+  </si>
+  <si>
+    <t>keeper_sweeper</t>
+  </si>
+  <si>
+    <t>interception</t>
+  </si>
+  <si>
+    <t>tackle</t>
+  </si>
+  <si>
+    <t>clearance</t>
+  </si>
+  <si>
+    <t>acciones_defensivas_saliendo</t>
+  </si>
+  <si>
+    <t>acciones_defensivas_fuera_area</t>
+  </si>
+  <si>
+    <t>acciones_defensivas_totales</t>
+  </si>
+  <si>
+    <t>altura_promedio_acciones_defensivas_fuera_area</t>
+  </si>
+  <si>
+    <t>indice_agresividad_fuera_area</t>
+  </si>
+  <si>
+    <t>minutos_totales</t>
+  </si>
+  <si>
+    <t>errores_totales</t>
+  </si>
+  <si>
+    <t>errores_leading_to_goal</t>
+  </si>
+  <si>
+    <t>errores_leading_to_attempt</t>
+  </si>
+  <si>
+    <t>Paradas Totales</t>
+  </si>
+  <si>
+    <t>xG de Paradas</t>
+  </si>
+  <si>
+    <t>xGoT de Paradas</t>
+  </si>
+  <si>
+    <t>xGoT Promedio por Tiro</t>
+  </si>
+  <si>
+    <t>% de Paradas</t>
+  </si>
+  <si>
+    <t>Paradas en Área Pequeña</t>
+  </si>
+  <si>
+    <t>xG Paradas Área Pequeña</t>
+  </si>
+  <si>
+    <t>xGoT Paradas Área Pequeña</t>
+  </si>
+  <si>
+    <t>Paradas Fuera Área Pequeña</t>
+  </si>
+  <si>
+    <t>xG Paradas Fuera Área Pequeña</t>
+  </si>
+  <si>
+    <t>xGoT Paradas Fuera Área Pequeña</t>
+  </si>
+  <si>
+    <t>Rechaces Seguros</t>
+  </si>
+  <si>
+    <t>Rechaces Peligrosos</t>
+  </si>
+  <si>
+    <t>% Rechaces Seguros</t>
+  </si>
+  <si>
+    <t>xG Total Recibido</t>
+  </si>
+  <si>
+    <t>xGoT Total Recibido</t>
+  </si>
+  <si>
+    <t>Goles Recibidos</t>
+  </si>
+  <si>
+    <t>Goles Evitados</t>
+  </si>
+  <si>
+    <t>Goles de Penalti Recibidos</t>
+  </si>
+  <si>
+    <t>Penaltis Parados</t>
+  </si>
+  <si>
+    <t>Pases Totales</t>
+  </si>
+  <si>
+    <t>Pases Exitosos</t>
+  </si>
+  <si>
+    <t>Pases No Exitosos</t>
+  </si>
+  <si>
+    <t>% Pases Exitosos</t>
+  </si>
+  <si>
+    <t>Pases Largos</t>
+  </si>
+  <si>
+    <t>Pases Largos Exitosos</t>
+  </si>
+  <si>
+    <t>Pases Largos No Exitosos</t>
+  </si>
+  <si>
+    <t>% Pases Largos</t>
+  </si>
+  <si>
+    <t>% Precisión Pases Largos</t>
+  </si>
+  <si>
+    <t>Pases Cortos</t>
+  </si>
+  <si>
+    <t>Pases Cortos Exitosos</t>
+  </si>
+  <si>
+    <t>Pases Cortos No Exitosos</t>
+  </si>
+  <si>
+    <t>% Pases Cortos</t>
+  </si>
+  <si>
+    <t>% Precisión Pases Cortos</t>
+  </si>
+  <si>
+    <t>Pases Fuera de Área</t>
+  </si>
+  <si>
+    <t>Pases 1er Tercio</t>
+  </si>
+  <si>
+    <t>Pases 1er Tercio Exitosos</t>
+  </si>
+  <si>
+    <t>Pases 1er Tercio No Exitosos</t>
+  </si>
+  <si>
+    <t>% Precisión 1er Tercio</t>
+  </si>
+  <si>
+    <t>Pases 2do Tercio</t>
+  </si>
+  <si>
+    <t>Pases 2do Tercio Exitosos</t>
+  </si>
+  <si>
+    <t>Pases 2do Tercio No Exitosos</t>
+  </si>
+  <si>
+    <t>% Precisión 2do Tercio</t>
+  </si>
+  <si>
+    <t>Pases 3er Tercio</t>
+  </si>
+  <si>
+    <t>Pases 3er Tercio Exitosos</t>
+  </si>
+  <si>
+    <t>Pases 3er Tercio No Exitosos</t>
+  </si>
+  <si>
+    <t>% Precisión 3er Tercio</t>
+  </si>
+  <si>
+    <t>xT Acumulado</t>
+  </si>
+  <si>
+    <t>xA Acumulado</t>
+  </si>
+  <si>
+    <t>Altura Promedio Pases Fuera Área</t>
+  </si>
+  <si>
+    <t>Índice Construcción Fuera Área</t>
+  </si>
+  <si>
+    <t>Duelos Aéreos</t>
+  </si>
+  <si>
+    <t>Salidas a Capturar</t>
+  </si>
+  <si>
+    <t>Despejes de Puño</t>
+  </si>
+  <si>
+    <t>Acciones en Centros</t>
+  </si>
+  <si>
+    <t>Acciones Centros Fuera Área</t>
+  </si>
+  <si>
+    <t>Centros Exitosos Sufridos</t>
+  </si>
+  <si>
+    <t>% Blocaje</t>
+  </si>
+  <si>
+    <t>Barridas</t>
+  </si>
+  <si>
+    <t>Intercepciones</t>
+  </si>
+  <si>
+    <t>Entradas</t>
+  </si>
+  <si>
+    <t>Despejes</t>
+  </si>
+  <si>
+    <t>Acciones Defensivas Saliendo</t>
+  </si>
+  <si>
+    <t>Acciones Defensivas Fuera Área</t>
+  </si>
+  <si>
+    <t>Acciones Defensivas Totales</t>
+  </si>
+  <si>
+    <t>Altura Promedio Acciones Fuera Área</t>
+  </si>
+  <si>
+    <t>Índice Agresividad Fuera Área</t>
+  </si>
+  <si>
+    <t>Minutos Totales</t>
+  </si>
+  <si>
+    <t>Errores Totales</t>
+  </si>
+  <si>
+    <t>Errores con Gol</t>
+  </si>
+  <si>
+    <t>Paradas de Baja Intervención</t>
+  </si>
+  <si>
+    <t>Paradas de Media Intervención</t>
+  </si>
+  <si>
+    <t>Paradas de Alta Intervención</t>
+  </si>
+  <si>
+    <t>Total Achiques</t>
+  </si>
+  <si>
+    <t>Total Atrapadas</t>
+  </si>
+  <si>
+    <t>Blocajes Exitosos</t>
+  </si>
+  <si>
+    <t>Blocajes Fallidos</t>
+  </si>
+  <si>
+    <t>% Éxito Blocajes</t>
+  </si>
+  <si>
+    <t>Blocajes Fuera Área Pequeña</t>
+  </si>
+  <si>
+    <t>Invertir</t>
+  </si>
+  <si>
+    <t>Ponderacion</t>
+  </si>
+  <si>
+    <t>Centros No Interceptados</t>
+  </si>
+  <si>
+    <t>Errores que terminan en Tiro</t>
+  </si>
+  <si>
+    <t>Blocajes Exitosos Fuera Área Peq.</t>
+  </si>
+  <si>
+    <t>Blocajes Fallidos Fuera Área Peq.</t>
+  </si>
+  <si>
+    <t>% Éxito Blocajes Fuera Área Peq.</t>
+  </si>
+  <si>
     <t>distancia_media_longball</t>
   </si>
   <si>
@@ -178,311 +574,32 @@
     <t>distancia_media_saque_con_mano</t>
   </si>
   <si>
-    <t>xt_acumulado</t>
-  </si>
-  <si>
-    <t>xa_acumulado</t>
-  </si>
-  <si>
-    <t>altura_promedio_pases_fuera_area</t>
-  </si>
-  <si>
-    <t>duelos_aereos</t>
-  </si>
-  <si>
-    <t>claims_totales</t>
-  </si>
-  <si>
-    <t>claims_exitosos</t>
-  </si>
-  <si>
-    <t>claims_no_exitosos</t>
-  </si>
-  <si>
-    <t>claims_fuera_area_pequena</t>
-  </si>
-  <si>
-    <t>claims_exitosos_fuera_area</t>
-  </si>
-  <si>
-    <t>claims_no_exitosos_fuera_area</t>
-  </si>
-  <si>
-    <t>punch</t>
-  </si>
-  <si>
-    <t>acciones_centros</t>
-  </si>
-  <si>
-    <t>acciones_centros_fuera_area</t>
-  </si>
-  <si>
-    <t>centros_exitosos_sufridos</t>
-  </si>
-  <si>
-    <t>crossnotclaimed</t>
-  </si>
-  <si>
-    <t>keeper_sweeper</t>
-  </si>
-  <si>
-    <t>interception</t>
-  </si>
-  <si>
-    <t>tackle</t>
-  </si>
-  <si>
-    <t>clearance</t>
-  </si>
-  <si>
-    <t>acciones_defensivas_saliendo</t>
-  </si>
-  <si>
-    <t>acciones_defensivas_fuera_area</t>
-  </si>
-  <si>
-    <t>acciones_defensivas_totales</t>
-  </si>
-  <si>
-    <t>altura_promedio_acciones_defensivas_fuera_area</t>
-  </si>
-  <si>
-    <t>minutos_totales</t>
-  </si>
-  <si>
-    <t>errores_totales</t>
-  </si>
-  <si>
-    <t>errores_leading_to_goal</t>
-  </si>
-  <si>
-    <t>errores_leading_to_attempt</t>
-  </si>
-  <si>
-    <t>Paradas Totales</t>
-  </si>
-  <si>
-    <t>xG de Paradas</t>
-  </si>
-  <si>
-    <t>xGoT de Paradas</t>
-  </si>
-  <si>
-    <t>Paradas en Área Pequeña</t>
-  </si>
-  <si>
-    <t>xG Paradas Área Pequeña</t>
-  </si>
-  <si>
-    <t>xGoT Paradas Área Pequeña</t>
-  </si>
-  <si>
-    <t>Paradas Fuera Área Pequeña</t>
-  </si>
-  <si>
-    <t>xG Paradas Fuera Área Pequeña</t>
-  </si>
-  <si>
-    <t>xGoT Paradas Fuera Área Pequeña</t>
-  </si>
-  <si>
-    <t>Paradas Baja Dificultad</t>
-  </si>
-  <si>
-    <t>Paradas Media Dificultad</t>
-  </si>
-  <si>
-    <t>Paradas Alta Dificultad</t>
-  </si>
-  <si>
-    <t>Rechaces Seguros</t>
-  </si>
-  <si>
-    <t>Rechaces Peligrosos</t>
-  </si>
-  <si>
-    <t>Atrapadas</t>
-  </si>
-  <si>
-    <t>Achicar</t>
-  </si>
-  <si>
-    <t>xG Total Recibido</t>
-  </si>
-  <si>
-    <t>xGoT Total Recibido</t>
-  </si>
-  <si>
-    <t>Goles Recibidos</t>
-  </si>
-  <si>
-    <t>Goles Evitados</t>
-  </si>
-  <si>
-    <t>Goles de Penalti Recibidos</t>
-  </si>
-  <si>
-    <t>Penaltis Parados</t>
-  </si>
-  <si>
-    <t>Pases Totales</t>
-  </si>
-  <si>
-    <t>Pases Exitosos</t>
-  </si>
-  <si>
-    <t>Pases No Exitosos</t>
-  </si>
-  <si>
-    <t>Pases Largos</t>
-  </si>
-  <si>
-    <t>Pases Largos Exitosos</t>
-  </si>
-  <si>
-    <t>Pases Largos No Exitosos</t>
-  </si>
-  <si>
-    <t>Pases Cortos</t>
-  </si>
-  <si>
-    <t>Pases Cortos Exitosos</t>
-  </si>
-  <si>
-    <t>Pases Cortos No Exitosos</t>
-  </si>
-  <si>
-    <t>Pases Fuera de Área</t>
-  </si>
-  <si>
-    <t>Pases 1er Tercio</t>
-  </si>
-  <si>
-    <t>Pases 1er Tercio Exitosos</t>
-  </si>
-  <si>
-    <t>Pases 1er Tercio No Exitosos</t>
-  </si>
-  <si>
-    <t>Pases 2do Tercio</t>
-  </si>
-  <si>
-    <t>Pases 2do Tercio Exitosos</t>
-  </si>
-  <si>
-    <t>Pases 2do Tercio No Exitosos</t>
-  </si>
-  <si>
-    <t>Pases 3er Tercio</t>
-  </si>
-  <si>
-    <t>Pases 3er Tercio Exitosos</t>
-  </si>
-  <si>
-    <t>Pases 3er Tercio No Exitosos</t>
-  </si>
-  <si>
-    <t>Distancia Media Longball</t>
-  </si>
-  <si>
-    <t>KeeperThrow Totales</t>
-  </si>
-  <si>
-    <t>KeeperThrow Exitosos</t>
-  </si>
-  <si>
-    <t>KeeperThrow No Exitosos</t>
-  </si>
-  <si>
-    <t>Distancia Media Saque Mano</t>
-  </si>
-  <si>
-    <t>xT Acumulado</t>
-  </si>
-  <si>
-    <t>xA Acumulado</t>
-  </si>
-  <si>
-    <t>Altura Promedio Pases Fuera Área</t>
-  </si>
-  <si>
-    <t>Duelos Aéreos</t>
-  </si>
-  <si>
-    <t>Salidas a Capturar</t>
-  </si>
-  <si>
-    <t>Capturas Exitosas</t>
-  </si>
-  <si>
-    <t>Capturas Fallidas</t>
-  </si>
-  <si>
-    <t>Capturas Fuera Área Pequeña</t>
-  </si>
-  <si>
-    <t>Capturas Exitosas Fuera Área</t>
-  </si>
-  <si>
-    <t>Capturas Fallidas Fuera Área</t>
-  </si>
-  <si>
-    <t>Despejes de Puño</t>
-  </si>
-  <si>
-    <t>Acciones en Centros</t>
-  </si>
-  <si>
-    <t>Acciones Centros Fuera Área</t>
-  </si>
-  <si>
-    <t>Centros Exitosos Sufridos</t>
-  </si>
-  <si>
-    <t>Centros No Reclamados</t>
-  </si>
-  <si>
-    <t>Barridas</t>
-  </si>
-  <si>
-    <t>Intercepciones</t>
-  </si>
-  <si>
-    <t>Entradas</t>
-  </si>
-  <si>
-    <t>Despejes</t>
-  </si>
-  <si>
-    <t>Acciones Defensivas Saliendo</t>
-  </si>
-  <si>
-    <t>Acciones Defensivas Fuera Área</t>
-  </si>
-  <si>
-    <t>Acciones Defensivas Totales</t>
-  </si>
-  <si>
-    <t>Altura Promedio Acciones Fuera Área</t>
-  </si>
-  <si>
-    <t>Minutos Totales</t>
-  </si>
-  <si>
-    <t>Errores Totales</t>
-  </si>
-  <si>
-    <t>Errores con Gol</t>
-  </si>
-  <si>
-    <t>Errores con Intento</t>
+    <t>Distancia Media Saque Largo</t>
+  </si>
+  <si>
+    <t>Saques con la mano</t>
+  </si>
+  <si>
+    <t>Saques con la mano exitosos</t>
+  </si>
+  <si>
+    <t>pct_exito_keeperthrow</t>
+  </si>
+  <si>
+    <t>Saques con la mano No exitosos</t>
+  </si>
+  <si>
+    <t>Distancia Media Saque con la mano</t>
+  </si>
+  <si>
+    <t>% Éxito Saque con la mano</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,7 +624,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -530,13 +647,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -545,13 +676,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -589,7 +728,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -623,6 +762,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -657,9 +797,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -832,14 +973,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.9296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,8 +999,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -858,10 +1014,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -869,10 +1031,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>93</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -880,10 +1048,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>94</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -891,10 +1065,16 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>95</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -902,10 +1082,16 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>96</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -913,10 +1099,16 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>97</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -924,10 +1116,16 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>98</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -935,43 +1133,67 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>99</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>100</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>101</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>102</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -979,10 +1201,16 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>162</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -990,10 +1218,16 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>163</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1001,10 +1235,16 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>164</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1012,10 +1252,16 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>103</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1023,10 +1269,16 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>104</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1034,10 +1286,16 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>105</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1045,43 +1303,67 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>166</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>165</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>106</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1089,43 +1371,67 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>108</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>110</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>111</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1133,10 +1439,16 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>112</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1144,10 +1456,16 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>113</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1155,10 +1473,16 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>114</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1166,10 +1490,16 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>115</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1177,10 +1507,16 @@
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>116</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1188,10 +1524,16 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>117</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1199,10 +1541,16 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>118</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1210,10 +1558,16 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>119</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1221,10 +1575,16 @@
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>120</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1232,10 +1592,16 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>121</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1243,10 +1609,16 @@
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>122</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1254,10 +1626,16 @@
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>123</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1265,10 +1643,16 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>124</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1276,10 +1660,16 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>125</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1287,10 +1677,16 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>126</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1298,10 +1694,16 @@
         <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>127</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1309,10 +1711,16 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>128</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1320,10 +1728,16 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>129</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1331,10 +1745,16 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>130</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1342,10 +1762,16 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>131</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1353,10 +1779,16 @@
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>132</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1364,10 +1796,16 @@
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>133</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1375,10 +1813,16 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>134</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1386,87 +1830,135 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>135</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>136</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>137</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>138</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>139</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>140</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>141</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
         <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>142</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1474,10 +1966,16 @@
         <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>143</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1485,10 +1983,16 @@
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>144</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1496,10 +2000,16 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>167</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1507,10 +2017,16 @@
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>168</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1518,142 +2034,510 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>169</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>170</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
         <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>175</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>176</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>177</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
         <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>145</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
         <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>146</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
         <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>147</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
         <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>148</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
         <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>173</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
         <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>149</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
         <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>150</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
         <v>80</v>
       </c>
       <c r="C74" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
         <v>153</v>
       </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" t="s">
+        <v>159</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" t="s">
+        <v>174</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" t="s">
+        <v>183</v>
+      </c>
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" t="s">
+        <v>185</v>
+      </c>
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" t="s">
+        <v>187</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E85" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/diccionario_metricas_porteros.xlsx
+++ b/diccionario_metricas_porteros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelDuran\AppData\Local\Programs\Python\streamlit_scouting_gk\streamlit_scouting_gk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A72918E-61C1-428D-AE7E-6F41830C0440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE61435-EB02-4673-9C80-B5F9DCA9CC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Diccionario" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diccionario!$A$1:$E$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diccionario!$A$1:$E$91</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -974,10 +974,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1006,7 +1007,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1023,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1037,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1057,7 +1058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1071,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1108,7 +1109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1292,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1414,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1584,7 +1585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
@@ -1737,7 +1738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
@@ -1958,7 +1959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -2043,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2060,7 +2061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2179,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2196,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -2247,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -2281,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -2298,7 +2299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -2332,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2468,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
@@ -2537,7 +2538,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E85" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E91" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Construcción"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>